--- a/Data/Nb_forudsigelser.xlsx
+++ b/Data/Nb_forudsigelser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjhp/Desktop/Inflation-Forecast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjhp/Desktop/Inflation-Forecast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB676AC0-8906-3B48-96F2-275175895627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D390F9-6421-ED49-B817-869656CF584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34920" yWindow="800" windowWidth="28040" windowHeight="17260" xr2:uid="{A8600E5C-0A60-414A-AF29-39AC504387BD}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE72CEA-A0E8-CB4B-AEE5-78CA5749C71B}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/Data/Nb_forudsigelser.xlsx
+++ b/Data/Nb_forudsigelser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjhp/Desktop/Inflation-Forecast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D390F9-6421-ED49-B817-869656CF584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666FC24-8F7D-E546-B9EE-D44C851887F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="800" windowWidth="28040" windowHeight="17260" xr2:uid="{A8600E5C-0A60-414A-AF29-39AC504387BD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A8600E5C-0A60-414A-AF29-39AC504387BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>År</t>
   </si>
@@ -44,46 +44,7 @@
     <t>Forudsigelse</t>
   </si>
   <si>
-    <t>marts 2015</t>
-  </si>
-  <si>
     <t>Horisont</t>
-  </si>
-  <si>
-    <t>Marts 2016</t>
-  </si>
-  <si>
-    <t>marts 2017</t>
-  </si>
-  <si>
-    <t>marts 2018</t>
-  </si>
-  <si>
-    <t>marts 2019</t>
-  </si>
-  <si>
-    <t>marts 2020</t>
-  </si>
-  <si>
-    <t>marts 2021</t>
-  </si>
-  <si>
-    <t>marts 2022</t>
-  </si>
-  <si>
-    <t>marts 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marts 2024	</t>
-  </si>
-  <si>
-    <t>Marts 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marts 2025 </t>
-  </si>
-  <si>
-    <t>marts 2025</t>
   </si>
   <si>
     <t>Prognose udgivelse</t>
@@ -125,7 +86,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE72CEA-A0E8-CB4B-AEE5-78CA5749C71B}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -496,8 +457,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2" s="2">
+        <v>42064</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,8 +471,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="D3" s="2">
+        <v>42064</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -524,8 +485,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="D4" s="2">
+        <v>42064</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,8 +541,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
+      <c r="D8" s="2">
+        <v>42430</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,8 +555,8 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
+      <c r="D9" s="2">
+        <v>42430</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,8 +569,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
+      <c r="D10" s="2">
+        <v>42430</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,8 +625,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
+      <c r="D14" s="2">
+        <v>42795</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,8 +639,8 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
+      <c r="D15" s="2">
+        <v>42795</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -692,8 +653,8 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
+      <c r="D16" s="2">
+        <v>42795</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -748,8 +709,8 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
+      <c r="D20" s="2">
+        <v>43160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,8 +723,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
+      <c r="D21" s="2">
+        <v>43160</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,8 +737,8 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
+      <c r="D22" s="2">
+        <v>43160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -832,8 +793,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
+      <c r="D26" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -846,8 +807,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
+      <c r="D27" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -860,8 +821,8 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
+      <c r="D28" s="2">
+        <v>43525</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,8 +877,8 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
+      <c r="D32" s="2">
+        <v>43891</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -930,8 +891,8 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
+      <c r="D33" s="2">
+        <v>43891</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,8 +905,8 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
+      <c r="D34" s="2">
+        <v>43891</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,8 +961,8 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>9</v>
+      <c r="D38" s="2">
+        <v>44256</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,8 +975,8 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
+      <c r="D39" s="2">
+        <v>44256</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1028,8 +989,8 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
+      <c r="D40" s="2">
+        <v>44256</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1084,8 +1045,8 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
+      <c r="D44" s="2">
+        <v>44621</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1098,8 +1059,8 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
+      <c r="D45" s="2">
+        <v>44621</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1112,8 +1073,8 @@
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
+      <c r="D46" s="2">
+        <v>44621</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1168,8 +1129,8 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
-        <v>11</v>
+      <c r="D50" s="2">
+        <v>44986</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,8 +1143,8 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>11</v>
+      <c r="D51" s="2">
+        <v>44986</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,8 +1157,8 @@
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>11</v>
+      <c r="D52" s="2">
+        <v>44986</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1211,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>45170</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1252,8 +1213,8 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" t="s">
-        <v>12</v>
+      <c r="D56" s="2">
+        <v>45352</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1266,8 +1227,8 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
+      <c r="D57" s="2">
+        <v>45352</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1280,8 +1241,8 @@
       <c r="C58">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
-        <v>13</v>
+      <c r="D58" s="2">
+        <v>45352</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1336,8 +1297,8 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
+      <c r="D62" s="2">
+        <v>45717</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1350,8 +1311,8 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
-        <v>15</v>
+      <c r="D63" s="2">
+        <v>45717</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1364,8 +1325,8 @@
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
+      <c r="D64" s="2">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>
